--- a/descriptions/polynom.xlsx
+++ b/descriptions/polynom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\secad\descriptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97ea5707f4f023c5/Документы/Рабочая документация/СПбГМТУ/_Магистратура/_ВКР/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{403376F7-29DA-44AA-BD95-2836324F0709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="743" documentId="8_{645A8A62-60A3-4B4D-9CEF-4D1166ACCFDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D63C2D1E-2153-4CEF-9B72-CF205754D89F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{1A00280E-0D1B-4F73-8575-865DE9BDC8D5}"/>
+    <workbookView xWindow="-21705" yWindow="4830" windowWidth="28800" windowHeight="15600" xr2:uid="{1A00280E-0D1B-4F73-8575-865DE9BDC8D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>l</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>t'</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>p'</t>
+  </si>
+  <si>
+    <t>FB</t>
   </si>
 </sst>
 </file>
@@ -382,37 +382,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.737603305785122</c:v>
+                  <c:v>15.128616161616163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.411386593204774</c:v>
+                  <c:v>23.615544332211002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.692148760330582</c:v>
+                  <c:v>28.969282828282832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.750688705234161</c:v>
+                  <c:v>31.49832996632998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.757805325987135</c:v>
+                  <c:v>31.511184062850749</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.884297520661164</c:v>
+                  <c:v>29.316343434343437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.300964187327832</c:v>
+                  <c:v>25.222306397306419</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.178604224058773</c:v>
+                  <c:v>19.537571268237961</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.688016528925619</c:v>
+                  <c:v>12.57063636363636</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9999999999999929</c:v>
+                  <c:v>4.630000000000031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,13 +1511,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BDCF44-4116-4492-8799-0A16E8CC73EC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1528,23 +1528,23 @@
         <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>35</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>0.45</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B5">
         <f>B2-E1</f>
-        <v>25</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="B7" s="1">
         <f>B4*B5</f>
-        <v>2.5</v>
+        <v>1.4300000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1590,8 +1590,8 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <f>E1+B7</f>
-        <v>12.5</v>
+        <f>E1</f>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1599,8 +1599,8 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <f>-3*B11*B6^2-2*B10*B6</f>
-        <v>0.50364029909484453</v>
+        <f>(2*B1^3*B5-3*B1^2*B6*B5+B7*B6^3)/(B1*B6*(B1^2-2*B6*B1+B6^2))</f>
+        <v>0.65487109187109194</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1608,8 +1608,8 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <f>(B5*B1^3-3*B5*B1*B6^2-2*B6^3*B7-B7*B1^3+3*B7*B1*B6^2)/(2*B6^3*B1^2-B6^4*B1-B6^2*B1^3)</f>
-        <v>-3.1004749619468236E-3</v>
+        <f>-(B1^3*B5-3*B1*B6^2*B5+2*B7*B6^3)/(B1*B6^2*(B1^2-2*B6*B1+B6^2))</f>
+        <v>-4.2519119132875746E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1617,8 +1617,8 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <f>(2*B10*B6*B1-B10*B1^2-B7)/(B1^3-3*B1*B6^2)</f>
-        <v>3.073802290458652E-6</v>
+        <f>(B1*B1*B5-2*B1*B6*B5+B7*B6*B6)/(B1*B6*B6*(B1*B1-2*B6*B1+B6*B6))</f>
+        <v>5.551925934893937E-6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B13">
         <f>$B$8+$B$9*A13^1+$B$10*A13^2+$B$11*A13^3</f>
-        <v>12.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B14">
         <f t="shared" ref="B14:B23" si="0">$B$8+$B$9*A14^1+$B$10*A14^2+$B$11*A14^3</f>
-        <v>21.737603305785122</v>
+        <v>15.128616161616163</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>28.411386593204774</v>
+        <v>23.615544332211002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>32.692148760330582</v>
+        <v>28.969282828282832</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>34.750688705234161</v>
+        <v>31.49832996632998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>34.757805325987135</v>
+        <v>31.511184062850749</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>32.884297520661164</v>
+        <v>29.316343434343437</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>29.300964187327832</v>
+        <v>25.222306397306419</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>24.178604224058773</v>
+        <v>19.537571268237961</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>17.688016528925619</v>
+        <v>12.57063636363636</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>9.9999999999999929</v>
+        <v>4.630000000000031</v>
       </c>
     </row>
   </sheetData>

--- a/descriptions/polynom.xlsx
+++ b/descriptions/polynom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97ea5707f4f023c5/Документы/Рабочая документация/СПбГМТУ/_Магистратура/_ВКР/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\secad\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="743" documentId="8_{645A8A62-60A3-4B4D-9CEF-4D1166ACCFDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D63C2D1E-2153-4CEF-9B72-CF205754D89F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EA536B-5050-449D-828F-A30FB5FEE1F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21705" yWindow="4830" windowWidth="28800" windowHeight="15600" xr2:uid="{1A00280E-0D1B-4F73-8575-865DE9BDC8D5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{1A00280E-0D1B-4F73-8575-865DE9BDC8D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -258,34 +258,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>147</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>189</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>210</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -343,34 +343,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>147</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>189</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>210</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,34 +385,34 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.128616161616163</c:v>
+                  <c:v>9.7163062130177522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.615544332211002</c:v>
+                  <c:v>14.549885601577911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.969282828282832</c:v>
+                  <c:v>17.802735207100589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.49832996632998</c:v>
+                  <c:v>19.576852071005916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.511184062850749</c:v>
+                  <c:v>19.974233234714006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.316343434343437</c:v>
+                  <c:v>19.096875739644972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.222306397306419</c:v>
+                  <c:v>17.046776627218936</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.537571268237961</c:v>
+                  <c:v>13.925932938856022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.57063636363636</c:v>
+                  <c:v>9.8363417159763333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.630000000000031</c:v>
+                  <c:v>4.8800000000000026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,7 +1512,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1525,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -1539,7 +1539,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>31.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1547,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1555,25 +1555,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f>B2-E1</f>
-        <v>28.6</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f>B3*B1</f>
-        <v>94.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="B7" s="1">
         <f>B4*B5</f>
-        <v>1.4300000000000002</v>
+        <v>1.6800000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B9">
         <f>(2*B1^3*B5-3*B1^2*B6*B5+B7*B6^3)/(B1*B6*(B1^2-2*B6*B1+B6^2))</f>
-        <v>0.65487109187109194</v>
+        <v>0.73916686390532549</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B10">
         <f>-(B1^3*B5-3*B1*B6^2*B5+2*B7*B6^3)/(B1*B6^2*(B1^2-2*B6*B1+B6^2))</f>
-        <v>-4.2519119132875746E-3</v>
+        <v>-8.9236193293885605E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1618,13 +1618,13 @@
       </c>
       <c r="B11">
         <f>(B1*B1*B5-2*B1*B6*B5+B7*B6*B6)/(B1*B6*B6*(B1*B1-2*B6*B1+B6*B6))</f>
-        <v>5.551925934893937E-6</v>
+        <v>1.6999506903353058E-5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>B1/10</f>
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1639,101 +1639,101 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>A13+$A$12</f>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <f t="shared" ref="B14:B23" si="0">$B$8+$B$9*A14^1+$B$10*A14^2+$B$11*A14^3</f>
-        <v>15.128616161616163</v>
+        <v>9.7163062130177522</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ref="A15:A23" si="1">A14+$A$12</f>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>23.615544332211002</v>
+        <v>14.549885601577911</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>28.969282828282832</v>
+        <v>17.802735207100589</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>31.49832996632998</v>
+        <v>19.576852071005916</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>31.511184062850749</v>
+        <v>19.974233234714006</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>29.316343434343437</v>
+        <v>19.096875739644972</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>25.222306397306419</v>
+        <v>17.046776627218936</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>19.537571268237961</v>
+        <v>13.925932938856022</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>12.57063636363636</v>
+        <v>9.8363417159763333</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>4.630000000000031</v>
+        <v>4.8800000000000026</v>
       </c>
     </row>
   </sheetData>
